--- a/py_html_parser/output.xlsx
+++ b/py_html_parser/output.xlsx
@@ -29,7 +29,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -40,6 +40,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00FFFFFF"/>
         <bgColor rgb="00FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -75,7 +81,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -84,6 +90,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -658,17 +665,17 @@
           <t>ADuC7019</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>Cortex-M0</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t>AT91C140</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>AS3525</t>
         </is>
@@ -818,12 +825,12 @@
           <t>ADuC7020</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>Cortex-M1 (Altera)</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D3" s="4" t="inlineStr">
         <is>
           <t>AT91F40416</t>
         </is>
@@ -942,12 +949,12 @@
           <t>ADuC7021</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>Cortex-M3</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="D4" s="4" t="inlineStr">
         <is>
           <t>AT91F40816</t>
         </is>
@@ -1062,12 +1069,12 @@
           <t>ADuC7022</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>Cortex-M4</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="D5" s="4" t="inlineStr">
         <is>
           <t>AT91FR40162</t>
         </is>
@@ -1170,12 +1177,12 @@
           <t>ADuC7023</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
+      <c r="C6" s="4" t="inlineStr">
         <is>
           <t>Cortex-M4 FPU</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="D6" s="4" t="inlineStr">
         <is>
           <t>AT91FR4042</t>
         </is>
@@ -1279,7 +1286,7 @@
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr"/>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t>AT91FR4081</t>
         </is>
@@ -1383,7 +1390,7 @@
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr"/>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="D8" s="4" t="inlineStr">
         <is>
           <t>AT91M40400</t>
         </is>
@@ -1487,7 +1494,7 @@
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr"/>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="D9" s="4" t="inlineStr">
         <is>
           <t>AT91M40800</t>
         </is>
@@ -1591,7 +1598,7 @@
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr"/>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="D10" s="4" t="inlineStr">
         <is>
           <t>AT91M40807</t>
         </is>
@@ -1695,7 +1702,7 @@
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr"/>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="D11" s="4" t="inlineStr">
         <is>
           <t>AT91M42800A</t>
         </is>
@@ -1795,7 +1802,7 @@
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr"/>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="D12" s="4" t="inlineStr">
         <is>
           <t>AT91M43300</t>
         </is>
@@ -1891,7 +1898,7 @@
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr"/>
-      <c r="D13" s="2" t="inlineStr">
+      <c r="D13" s="4" t="inlineStr">
         <is>
           <t>AT91M55800A</t>
         </is>
@@ -1987,7 +1994,7 @@
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr"/>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="D14" s="4" t="inlineStr">
         <is>
           <t>AT91M63200</t>
         </is>
